--- a/import/sampledatafile.xlsx
+++ b/import/sampledatafile.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mqasim\Documents\GitHub new\EGPL\import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="15480"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -52,23 +57,11 @@
   <si>
     <t>Exhibitor</t>
   </si>
-  <si>
-    <t>Sponsor</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>janesmith@expo-genie.com</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,8 +157,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
     <tableColumn id="2" name="Email" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" name="First Name"/>
@@ -464,21 +457,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -509,35 +502,16 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2" display="testuser1@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -553,7 +527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -570,7 +544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/import/sampledatafile.xlsx
+++ b/import/sampledatafile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mqasim\Documents\GitHub new\EGPL\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mqasim\Desktop\Convospark\ready-release-rollout-plan 11-02-2019\EGPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -56,6 +56,36 @@
   </si>
   <si>
     <t>Exhibitor</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone 1</t>
+  </si>
+  <si>
+    <t>Phone 2</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -157,14 +187,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E2"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:O2"/>
+  <tableColumns count="15">
     <tableColumn id="2" name="Email" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" name="First Name"/>
     <tableColumn id="4" name="Last Name"/>
     <tableColumn id="5" name="User Level"/>
     <tableColumn id="1" name="Company Name"/>
+    <tableColumn id="6" name="Prefix"/>
+    <tableColumn id="7" name="Address 1"/>
+    <tableColumn id="8" name="Address 2"/>
+    <tableColumn id="9" name="City"/>
+    <tableColumn id="10" name="State"/>
+    <tableColumn id="11" name="Zipcode"/>
+    <tableColumn id="12" name="Country"/>
+    <tableColumn id="13" name="Phone 1"/>
+    <tableColumn id="14" name="Phone 2"/>
+    <tableColumn id="16" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -213,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +511,7 @@
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +527,38 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
